--- a/public/templates/Product_Resource_Plan_Staffing_Plan.xlsx
+++ b/public/templates/Product_Resource_Plan_Staffing_Plan.xlsx
@@ -545,7 +545,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>PRODUCT Resource Plan Staffing Plan Project</t>
+          <t>Product Development Implementation Project</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Enterprise AI/ML Implementation</t>
+          <t>Enterprise Product Development Implementation</t>
         </is>
       </c>
     </row>
@@ -648,6 +648,7 @@
         </is>
       </c>
     </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
@@ -776,7 +777,7 @@
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Data Science/AI</t>
+          <t>Data Science/Product</t>
         </is>
       </c>
       <c r="B18" s="7" t="n">
@@ -802,7 +803,7 @@
       </c>
       <c r="G18" s="5" t="inlineStr">
         <is>
-          <t>ML, Python, Statistics</t>
+          <t>Product, Python, Statistics</t>
         </is>
       </c>
       <c r="H18" s="5" t="inlineStr">
@@ -1109,10 +1110,11 @@
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
-          <t>DETAILED STAFFING PLAN</t>
-        </is>
-      </c>
-    </row>
+          <t>DETProductLED STAFFING PLAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -1600,7 +1602,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>Data Science/AI</t>
+          <t>Data Science/Product</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
@@ -1638,7 +1640,7 @@
       </c>
       <c r="K9" s="5" t="inlineStr">
         <is>
-          <t>ML, Deep Learning, Python</t>
+          <t>Product, Deep Learning, Python</t>
         </is>
       </c>
       <c r="L9" s="5" t="inlineStr">
@@ -1663,7 +1665,7 @@
       </c>
       <c r="P9" s="5" t="inlineStr">
         <is>
-          <t>AI Lead</t>
+          <t>Product Lead</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1682,7 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>Data Science/AI</t>
+          <t>Data Science/Product</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
@@ -1718,7 +1720,7 @@
       </c>
       <c r="K10" s="5" t="inlineStr">
         <is>
-          <t>ML, Statistics, R/Python</t>
+          <t>Product, Statistics, R/Python</t>
         </is>
       </c>
       <c r="L10" s="5" t="inlineStr">
@@ -1756,7 +1758,7 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>Data Science/AI</t>
+          <t>Data Science/Product</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
@@ -1794,7 +1796,7 @@
       </c>
       <c r="K11" s="5" t="inlineStr">
         <is>
-          <t>ML, Python, Visualization</t>
+          <t>Product, Python, Visualization</t>
         </is>
       </c>
       <c r="L11" s="5" t="inlineStr">
@@ -1827,12 +1829,12 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>Product Engineer</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>Data Science/AI</t>
+          <t>Data Science/Product</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
@@ -1870,7 +1872,7 @@
       </c>
       <c r="K12" s="5" t="inlineStr">
         <is>
-          <t>MLOps, Python, Cloud</t>
+          <t>ProductOps, Python, Cloud</t>
         </is>
       </c>
       <c r="L12" s="5" t="inlineStr">
@@ -1908,7 +1910,7 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>Data Science/AI</t>
+          <t>Data Science/Product</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
@@ -3359,6 +3361,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -4015,6 +4018,7 @@
         </is>
       </c>
     </row>
+    <row r="11"/>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
@@ -4090,6 +4094,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -4108,7 +4113,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Product Innovation</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -4472,6 +4477,7 @@
         <v>3.2</v>
       </c>
     </row>
+    <row r="11"/>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
@@ -4560,6 +4566,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -4719,7 +4726,7 @@
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Data Science/AI</t>
+          <t>Data Science/Product</t>
         </is>
       </c>
       <c r="B6" s="7" t="inlineStr">
@@ -5127,6 +5134,8 @@
         </is>
       </c>
     </row>
+    <row r="14"/>
+    <row r="15"/>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
@@ -5234,6 +5243,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -5326,7 +5336,7 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>Team lacks required ML expertise</t>
+          <t>Team lacks required Product expertise</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
@@ -5612,6 +5622,8 @@
         </is>
       </c>
     </row>
+    <row r="12"/>
+    <row r="13"/>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
